--- a/biology/Médecine/Traumatologie_de_la_dent_temporaire/Traumatologie_de_la_dent_temporaire.xlsx
+++ b/biology/Médecine/Traumatologie_de_la_dent_temporaire/Traumatologie_de_la_dent_temporaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La traumatologie de la dent temporaire étudie les chocs et lésions des premières dents, y apportant des soins adaptés.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chute à la maison, dans la rue (après un an, risque maximum vers 3 ans avec la marche). Ces chutes sont fréquentes car les enfants courent beaucoup. Dès 3 ans, les enfants entrent à l'école :
 chutes et collisions ;
@@ -544,7 +558,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">50 % des traumas des dents temporaires en âge préscolaire sont déniés. On a donc une
 sous estimation de ce phénomène.
@@ -593,19 +609,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fracture coronaire amélaire, ou fêlure
-Fracture coronaire amélaire ou fêlure : c'est une perte d'émail qu'on peut mettre en évidence avec la lampe à polymériser par transillumination
-Fracture coronaire amélo-dentinaire sans exposition pulpaire
-Fracture coronaire amélo-dentinaire sans exposition pulpaire : c'est une perte de substance coronaire avec douleur plus ou moins provoquée par le froid.
-Le traitement consiste à protéger le complexe pulpo-dentinaire, suivi d'une reconstitution coronaire.
-Fracture coronaire amélo-dentinaire avec exposition pulpaire
-Fracture coronaire amélo-dentinaire avec exposition pulpaire : c'est une perte de substance coronaire avec douleurs aiguë et spontanée et plus ou moins de saignement pulpaire.
-Fracture corono-radiculaire
-Fracture corono-radiculaire : fracture de l'email, de la dentine, du cément avec ou sans atteinte pulpaire
-II y a une mobilité axiale et/ou latérale d'un fragment coronaire de la dent, avec une douleur à l'occlusion 
-Fracture radiculaire
-Fracture radiculaire : fracture de la dentine, du cément et de la pulpe avec ou sans déplacement du fragment coronaire.
-Dans ce cas une mobilité axiale et/ou latérale de la dent avec une élongation coronaire survient[1], plus ou moins prononcée et une gêne à l'occlusion.
+          <t>Fracture coronaire amélaire, ou fêlure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fracture coronaire amélaire ou fêlure : c'est une perte d'émail qu'on peut mettre en évidence avec la lampe à polymériser par transillumination
 </t>
         </is>
       </c>
@@ -631,67 +641,400 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les fractures</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fracture coronaire amélo-dentinaire sans exposition pulpaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fracture coronaire amélo-dentinaire sans exposition pulpaire : c'est une perte de substance coronaire avec douleur plus ou moins provoquée par le froid.
+Le traitement consiste à protéger le complexe pulpo-dentinaire, suivi d'une reconstitution coronaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les fractures</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fracture coronaire amélo-dentinaire avec exposition pulpaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fracture coronaire amélo-dentinaire avec exposition pulpaire : c'est une perte de substance coronaire avec douleurs aiguë et spontanée et plus ou moins de saignement pulpaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les fractures</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fracture corono-radiculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fracture corono-radiculaire : fracture de l'email, de la dentine, du cément avec ou sans atteinte pulpaire
+II y a une mobilité axiale et/ou latérale d'un fragment coronaire de la dent, avec une douleur à l'occlusion 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les fractures</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fracture radiculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fracture radiculaire : fracture de la dentine, du cément et de la pulpe avec ou sans déplacement du fragment coronaire.
+Dans ce cas une mobilité axiale et/ou latérale de la dent avec une élongation coronaire survient, plus ou moins prononcée et une gêne à l'occlusion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Les luxations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contusion
-Contusion : c'est un traumatisme parodontal sans relâchement ni déplacement de la dent
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Contusion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contusion : c'est un traumatisme parodontal sans relâchement ni déplacement de la dent
 (hématome).
 Il peut y avoir une légère douleur à la palpation et pas ou peu de saignement.
-Subluxation
-C'est un trauma parodontal avec un relâchement anormal sans déplacement dentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les luxations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Subluxation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un trauma parodontal avec un relâchement anormal sans déplacement dentaire.
 Il y a une légère douleur à la palpation, sans ou avec un léger saignement autour de la
 dent.
-Intrusion
-II s'agit du déplacement de la dent dans son alvéole souvent accompagné de fracture
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les luxations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Intrusion</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">II s'agit du déplacement de la dent dans son alvéole souvent accompagné de fracture
 alvéolaire.
 Signes cliniques : la dent est plus courte voire invisible (attention que la dent soit
 toujours là), il y a une douleur spontanée et un son métallique à la percussion de la
 dent.
-Luxation latérale
-C'est un déplacement non axial de la dent souvent accompagné d'une fracture alvéolaire. Dans ce cas la dent n'est pas dans l'axe des autres, il y a un saignement autour de la dent, une douleur spontanée ou provoquée par une simple pression.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les luxations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Luxation latérale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un déplacement non axial de la dent souvent accompagné d'une fracture alvéolaire. Dans ce cas la dent n'est pas dans l'axe des autres, il y a un saignement autour de la dent, une douleur spontanée ou provoquée par une simple pression.
 Si on a une luxation latérale seule, parfois on a une absence de sensibilité et de
 mobilité, donc on a une luxation latérale pure sans fracture alvéolaire, sans
 écrasement d'os.
 Attention bien faire le diagnostic différentiel avec une mobilité due à une fracture
 radiculaire.
-Extrusion
-C'est un déplacement partiel de la dent hors de son alvéole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les luxations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Extrusion</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un déplacement partiel de la dent hors de son alvéole.
 Signes cliniques : dent longue, avec saignement autour de la dent et douleurs
 spontanées ou provoquées par une simple pression.
-Luxation totale
-C'est le déplacement complet de la dent hors de son alvéole. Nous avons donc une dent absente avec l’alvéole vide saignante. Bien faire le diagnostic différentiel avec l’intrusion totale.Ne pas réimplanter la dent.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Traumatologie_de_la_dent_temporaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les luxations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Luxation totale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le déplacement complet de la dent hors de son alvéole. Nous avons donc une dent absente avec l’alvéole vide saignante. Bien faire le diagnostic différentiel avec l’intrusion totale.Ne pas réimplanter la dent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traumatologie_de_la_dent_temporaire</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Conduite à tenir</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Prenez de l'eau chaude dans votre bouche pour calmer la douleur
 </t>
